--- a/Controller_PCB_Bluetooth/Left_Controller/Left_Controller_Bluetooth_BOM.xlsx
+++ b/Controller_PCB_Bluetooth/Left_Controller/Left_Controller_Bluetooth_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist1102449_tecnico_ulisboa_pt/Documents/Universidade/Engenharia Eletrónica/3º ano/Projeto Integrador/controller/Left_Controller_PCB_Bluetooth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Duarte\Documents\GitHub\Controller_Arduino\Controller_PCB_Bluetooth\Left_Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{77899861-9EB9-4551-8F62-4E75DC6541B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B8F13E1-819C-4C79-ABD6-61952F9EC3B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8897946-E2C2-478C-A8E6-527978DD0594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{341EB148-9EB0-4B6C-BF4D-0B5668486A6B}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>https://docs.arduino.cc/resources/datasheets/ABX00083-datasheet.pdf</t>
   </si>
   <si>
-    <t>https://www.digikey.pt/pt/products/detail/cui-devices/TS02-66-70-BK-100-LCR-D/15634375</t>
-  </si>
-  <si>
     <t>https://store.arduino.cc/products/nano-esp32-with-headers</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Price per piece</t>
   </si>
   <si>
-    <t>https://mauser.pt/catalog/product_info.php?cPath=324_1401_1629&amp;products_id=010-1174</t>
-  </si>
-  <si>
     <t xml:space="preserve">    BAT9V1</t>
   </si>
   <si>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>Battery Holder 9V</t>
+  </si>
+  <si>
+    <t>https://mauser.pt/catalog/product_info.php?products_id=010-1107</t>
+  </si>
+  <si>
+    <t>https://www.farnell.com/datasheets/2343587.pdf</t>
   </si>
 </sst>
 </file>
@@ -202,10 +202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C44CBAA-1E50-4C3C-A35A-38537C9CA70C}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>12</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -704,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -733,10 +733,10 @@
         <v>0.96</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -768,7 +768,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -777,17 +777,17 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>0.62</v>
@@ -796,27 +796,29 @@
         <f>Controller_PCB[[#This Row],[Price per piece]]*Controller_PCB[[#This Row],[Quantity]]</f>
         <v>0.62</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>26</v>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{D0D252E9-C65E-4443-8B38-13713163A951}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{B3F206C9-4F86-4A88-84C0-802DCC63B1E6}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{C9EF186A-006D-442F-9DB6-E6412B962F25}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{80377FCA-BC22-43EC-A8E5-2F812C714C8E}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{E38504AA-1697-4E6C-B1FA-74B09528F370}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{6F4647C7-5BF6-4DF9-BC60-FFA6D8D96339}"/>
-    <hyperlink ref="I5" r:id="rId7" xr:uid="{3D2A2DE7-3712-4282-A674-034868360727}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{B3F206C9-4F86-4A88-84C0-802DCC63B1E6}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{C9EF186A-006D-442F-9DB6-E6412B962F25}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{80377FCA-BC22-43EC-A8E5-2F812C714C8E}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{6F4647C7-5BF6-4DF9-BC60-FFA6D8D96339}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{3D2A2DE7-3712-4282-A674-034868360727}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{DA59C8D7-1228-4738-BF04-6B610A3CC59F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
